--- a/lab024/lab007/test.xlsx
+++ b/lab024/lab007/test.xlsx
@@ -312,34 +312,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>你好1</v>
-      </c>
-      <c r="B1" t="str">
-        <v>你好2</v>
-      </c>
-      <c r="C1" t="str">
-        <v>你好3</v>
-      </c>
-      <c r="D1" t="str">
-        <v>你好4</v>
-      </c>
-      <c r="E1" t="str">
-        <v>你好5</v>
-      </c>
-      <c r="F1" t="str">
-        <v>你好6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab024/lab007/test.xlsx
+++ b/lab024/lab007/test.xlsx
@@ -312,13 +312,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" defaultGridColor="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="Y2" t="str">
+        <v>你好1</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>你好2</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>你好3</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>你好4</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>你好5</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>你好6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>